--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,43 +49,49 @@
     <t>ripped</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>plastic</t>
   </si>
   <si>
     <t>broken</t>
@@ -97,93 +103,78 @@
     <t>paint</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>though</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>size</t>
+    <t>back</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>hard</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>product</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>could</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>expected</t>
+    <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -193,9 +184,6 @@
     <t>wonderful</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
@@ -230,6 +218,9 @@
   </si>
   <si>
     <t>friends</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
@@ -596,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,10 +595,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -665,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -683,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K3">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="L3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -707,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -736,16 +727,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K4">
-        <v>0.8518518518518519</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -757,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -786,16 +777,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K5">
-        <v>0.8153846153846154</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -807,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -815,13 +806,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7688172043010753</v>
+        <v>0.78125</v>
       </c>
       <c r="C6">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -833,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K6">
-        <v>0.6451612903225806</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -857,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -865,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7475728155339806</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C7">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D7">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -883,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K7">
-        <v>0.6037735849056604</v>
+        <v>0.484375</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -907,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -915,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7323943661971831</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C8">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -933,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K8">
-        <v>0.5</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -957,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -965,13 +956,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.703125</v>
+        <v>0.7087378640776699</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="D9">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -983,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K9">
-        <v>0.391304347826087</v>
+        <v>0.3434426229508197</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>419</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>419</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1007,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>42</v>
+        <v>801</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1015,13 +1006,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.668918918918919</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C10">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="D10">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1033,19 +1024,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K10">
-        <v>0.3459016393442623</v>
+        <v>0.3142037302725968</v>
       </c>
       <c r="L10">
-        <v>422</v>
+        <v>219</v>
       </c>
       <c r="M10">
-        <v>422</v>
+        <v>219</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1057,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>798</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1065,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6041666666666666</v>
+        <v>0.668918918918919</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1083,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K11">
-        <v>0.3089080459770115</v>
+        <v>0.2489626556016598</v>
       </c>
       <c r="L11">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="M11">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1104,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>481</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1115,13 +1106,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1133,19 +1124,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K12">
-        <v>0.2655601659751037</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L12">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="M12">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1157,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>354</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1165,13 +1156,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5789473684210527</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1183,19 +1174,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K13">
-        <v>0.2166666666666667</v>
+        <v>0.1987951807228916</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1207,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>94</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1215,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5714285714285714</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1233,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K14">
-        <v>0.1807228915662651</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1257,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>136</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1265,37 +1256,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5630252100840336</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>17</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D15">
-        <v>67</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>52</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="K15">
-        <v>0.1467889908256881</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1307,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>279</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1315,38 +1306,38 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5185185185185185</v>
+        <v>0.5625</v>
       </c>
       <c r="C16">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>21</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16">
+        <v>0.1124497991967871</v>
+      </c>
+      <c r="L16">
         <v>28</v>
       </c>
-      <c r="D16">
+      <c r="M16">
         <v>28</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>26</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16">
-        <v>0.1322751322751323</v>
-      </c>
-      <c r="L16">
-        <v>25</v>
-      </c>
-      <c r="M16">
-        <v>25</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
@@ -1357,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>164</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1365,13 +1356,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4811594202898551</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C17">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1383,31 +1374,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K17">
-        <v>0.07975460122699386</v>
+        <v>0.07456140350877193</v>
       </c>
       <c r="L17">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M17">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>1050</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1415,13 +1406,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.462962962962963</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1433,31 +1424,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K18">
-        <v>0.03114860480207658</v>
+        <v>0.03766233766233766</v>
       </c>
       <c r="L18">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M18">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>1493</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1465,13 +1456,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4457831325301205</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1483,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1491,13 +1482,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4315789473684211</v>
+        <v>0.4724409448818898</v>
       </c>
       <c r="C20">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D20">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1509,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1517,13 +1508,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4285714285714285</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1535,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1543,13 +1534,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4094488188976378</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C22">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D22">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1561,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1569,13 +1560,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3770491803278688</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1587,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1598,10 +1589,10 @@
         <v>0.359375</v>
       </c>
       <c r="C24">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1613,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1621,13 +1612,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.34375</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1639,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1647,13 +1638,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3370786516853932</v>
+        <v>0.3203125</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1665,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1673,13 +1664,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3267326732673267</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="C27">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D27">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1691,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1725,13 +1716,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2564102564102564</v>
+        <v>0.2346938775510204</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1743,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1751,13 +1742,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2551020408163265</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1769,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>73</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1777,13 +1768,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2371134020618557</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C31">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1795,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>148</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1803,13 +1794,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.189873417721519</v>
+        <v>0.1928571428571429</v>
       </c>
       <c r="C32">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D32">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1821,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>256</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1829,13 +1820,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1864406779661017</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1847,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>96</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1855,13 +1846,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1811594202898551</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C34">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D34">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1873,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1881,25 +1872,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1797919762258544</v>
+        <v>0.185</v>
       </c>
       <c r="C35">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="D35">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="E35">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>552</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1907,25 +1898,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1714285714285714</v>
+        <v>0.1842496285289748</v>
       </c>
       <c r="C36">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="D36">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>116</v>
+        <v>549</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1959,13 +1950,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.155</v>
+        <v>0.1387665198237885</v>
       </c>
       <c r="C38">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D38">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1977,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>169</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1985,13 +1976,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1542857142857143</v>
+        <v>0.1371428571428571</v>
       </c>
       <c r="C39">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2003,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2011,13 +2002,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1528662420382166</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2029,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>133</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2037,13 +2028,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1408045977011494</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="C41">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2055,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>299</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2063,13 +2054,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1355140186915888</v>
+        <v>0.1120689655172414</v>
       </c>
       <c r="C42">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D42">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2081,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>185</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2089,13 +2080,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.13215859030837</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="C43">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D43">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2107,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>394</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2115,13 +2106,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.125</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="C44">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D44">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2133,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>168</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2141,13 +2132,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1123595505617977</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="C45">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D45">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2159,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>237</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2167,25 +2158,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1008064516129032</v>
+        <v>0.06754530477759473</v>
       </c>
       <c r="C46">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D46">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>223</v>
+        <v>566</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2193,13 +2184,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09863013698630137</v>
+        <v>0.0623608017817372</v>
       </c>
       <c r="C47">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D47">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2211,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>329</v>
+        <v>421</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2219,103 +2210,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.06696428571428571</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C48">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D48">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E48">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="F48">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49">
-        <v>0.06478873239436619</v>
-      </c>
-      <c r="C49">
-        <v>23</v>
-      </c>
-      <c r="D49">
-        <v>23</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>0.06085526315789474</v>
-      </c>
-      <c r="C50">
-        <v>37</v>
-      </c>
-      <c r="D50">
-        <v>37</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <v>0.03286978508217446</v>
-      </c>
-      <c r="C51">
-        <v>26</v>
-      </c>
-      <c r="D51">
-        <v>29</v>
-      </c>
-      <c r="E51">
-        <v>0.1</v>
-      </c>
-      <c r="F51">
-        <v>0.9</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
   </sheetData>
